--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>community</t>
   </si>
@@ -138,10 +138,13 @@
     <t>CDM42 - Glucose</t>
   </si>
   <si>
-    <t>CDM42  Galactose</t>
-  </si>
-  <si>
-    <t>CDM42  Lactose</t>
+    <t>- </t>
+  </si>
+  <si>
+    <t>CDM42  Galactose</t>
+  </si>
+  <si>
+    <t>CDM42  Lactose</t>
   </si>
 </sst>
 </file>
@@ -463,12 +466,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.5234375" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.20703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -493,13 +497,13 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E2">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -510,13 +514,13 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E3">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -527,13 +531,13 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -544,13 +548,13 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -558,16 +562,16 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -578,13 +582,13 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E7">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -592,7 +596,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -601,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -612,13 +616,13 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D9">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -629,47 +633,47 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="D11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E11">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
